--- a/dev-diaries/diary-person-4.xlsx
+++ b/dev-diaries/diary-person-4.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="38" windowWidth="15960" windowHeight="17348"/>
+    <workbookView xWindow="0" yWindow="38" windowWidth="15960" windowHeight="17348" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
+    <sheet name="Diary" sheetId="1" r:id="rId1"/>
+    <sheet name="Reflection" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -76,6 +77,24 @@
   </si>
   <si>
     <t>Team X</t>
+  </si>
+  <si>
+    <t>Team-Mitglied</t>
+  </si>
+  <si>
+    <t>Anteil</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>w</t>
   </si>
 </sst>
 </file>
@@ -389,6 +408,859 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reflection!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Anteil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Reflection!$B$2:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>w</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>x</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>y</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>z</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Reflection!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3428-418B-8F90-3E4B75F17118}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>21431</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>150018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>273843</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>140493</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -1496,7 +2368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q152"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -4456,4 +5328,63 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="28.46484375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>